--- a/src/test/resources/inputData/Data.xlsx
+++ b/src/test/resources/inputData/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaiq\eclipse-workspace\com.datadriven.sharks\src\test\resources\inputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmsh\Downloads\com.datadriven.sharks\com.datadriven.sharks\src\test\resources\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EDB51B-0D7A-4D3F-96D2-3CD5C7E716EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669117F6-CE9E-4F10-A41C-FE941493CE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>shark@tekschool.us</t>
   </si>
@@ -43,6 +43,33 @@
   </si>
   <si>
     <t>147852369</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>panthers@tekschool.us</t>
+  </si>
+  <si>
+    <t>258789654</t>
+  </si>
+  <si>
+    <t>7pm-10pm EST</t>
+  </si>
+  <si>
+    <t>6pm- 9pm PST</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -373,41 +400,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6E8424-6FA1-4C5F-8DD1-20E60EA41288}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C6:C7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.15625" style="1"/>
+    <col min="3" max="3" width="10.3125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -415,12 +487,22 @@
     <hyperlink ref="A1" r:id="rId1" xr:uid="{B6043EB5-0EB0-451D-B69D-0ABDD8DC6852}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{DE16B6D1-830E-44EB-A9A8-81C5EDC2125E}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{F3F429D2-B192-4DCD-87F2-89DA952481DA}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{D96B6C43-FC1A-4D30-8285-331357CF211D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058694C82971B26429AAFA48E503DC2E4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="395daba75c01a36611c74cc5ead682ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73be1997-5176-4b6f-8c0d-c3d135e602db" xmlns:ns3="ad343bc6-8aa6-41a8-9d81-666d0aad6f68" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea3898b326fabb1e26757485f0248481" ns2:_="" ns3:_="">
     <xsd:import namespace="73be1997-5176-4b6f-8c0d-c3d135e602db"/>
@@ -657,15 +739,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -678,13 +751,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C7CB49-CCC9-4966-80ED-504572038705}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B406C554-D3D6-4D19-B6C1-01B40C15CFF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B406C554-D3D6-4D19-B6C1-01B40C15CFF4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C7CB49-CCC9-4966-80ED-504572038705}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="73be1997-5176-4b6f-8c0d-c3d135e602db"/>
+    <ds:schemaRef ds:uri="ad343bc6-8aa6-41a8-9d81-666d0aad6f68"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9533802A-4F97-474A-BB29-E7F395BC0263}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9533802A-4F97-474A-BB29-E7F395BC0263}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ad343bc6-8aa6-41a8-9d81-666d0aad6f68"/>
+    <ds:schemaRef ds:uri="73be1997-5176-4b6f-8c0d-c3d135e602db"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>